--- a/data/trans_orig/CUI_GLOB-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/CUI_GLOB-Dificultad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>49315</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>40850</v>
+        <v>41251</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>57672</v>
+        <v>58460</v>
       </c>
       <c r="G4" s="6" t="n">
-        <v>0.6325661047027822</v>
+        <v>0.6325661047027823</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.5239769857323296</v>
+        <v>0.5291193650463762</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.7397495608916738</v>
+        <v>0.7498584634392189</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>139</v>
@@ -762,19 +762,19 @@
         <v>82600</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>73263</v>
+        <v>74431</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>89892</v>
+        <v>91184</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.6669234408348625</v>
+        <v>0.6669234408348627</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5915403259346085</v>
+        <v>0.6009707843251053</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.725800503560549</v>
+        <v>0.736232493117587</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>191</v>
@@ -783,19 +783,19 @@
         <v>131915</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>118435</v>
+        <v>120174</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>144051</v>
+        <v>143338</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.653651118223821</v>
+        <v>0.6536511182238213</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5868561821033139</v>
+        <v>0.5954701747749002</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.7137825019390666</v>
+        <v>0.7102504201183816</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>17801</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11099</v>
+        <v>10617</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>25990</v>
+        <v>26234</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2283289635114732</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1423634845245719</v>
+        <v>0.1361857376065278</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3333753919559179</v>
+        <v>0.3365018559556469</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>21</v>
@@ -833,19 +833,19 @@
         <v>13798</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>8854</v>
+        <v>8792</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>20048</v>
+        <v>20719</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1114084541697814</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07148847671982775</v>
+        <v>0.07098571942040066</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1618707748240152</v>
+        <v>0.1672853730590338</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>39</v>
@@ -854,19 +854,19 @@
         <v>31599</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>22983</v>
+        <v>22421</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>42250</v>
+        <v>41310</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1565751316404846</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1138806426783131</v>
+        <v>0.1110995320580309</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.209354092667551</v>
+        <v>0.2046943669268846</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>10845</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>6191</v>
+        <v>5866</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18040</v>
+        <v>17483</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1391049317857446</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.07940907193358523</v>
+        <v>0.07524829807533748</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2314032571349597</v>
+        <v>0.2242581937045745</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>41</v>
@@ -904,19 +904,19 @@
         <v>27454</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>20837</v>
+        <v>19957</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>36253</v>
+        <v>35652</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.2216681049953561</v>
+        <v>0.221668104995356</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1682434390239091</v>
+        <v>0.1611379601846649</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2927107817065729</v>
+        <v>0.2878581060046389</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>54</v>
@@ -925,19 +925,19 @@
         <v>38299</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>29089</v>
+        <v>29063</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>49917</v>
+        <v>49004</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1897737501356943</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.144140830019022</v>
+        <v>0.1440104860692294</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2473427798286653</v>
+        <v>0.2428166745640829</v>
       </c>
     </row>
     <row r="7">
@@ -1029,19 +1029,19 @@
         <v>60163</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>50080</v>
+        <v>49287</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>68751</v>
+        <v>70399</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.5901148652113078</v>
+        <v>0.5901148652113076</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4912125213190972</v>
+        <v>0.4834322271595123</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6743480969692842</v>
+        <v>0.6905137743364722</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>180</v>
@@ -1050,19 +1050,19 @@
         <v>100875</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>89906</v>
+        <v>88828</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>113414</v>
+        <v>111448</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5453659768190289</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4860633627064604</v>
+        <v>0.4802369064514769</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6131601159667818</v>
+        <v>0.6025290936022875</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>260</v>
@@ -1071,19 +1071,19 @@
         <v>161038</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>146634</v>
+        <v>144608</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>176540</v>
+        <v>176031</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.5612667923518817</v>
+        <v>0.5612667923518815</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5110646177538096</v>
+        <v>0.5040036282516246</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6152962781562353</v>
+        <v>0.6135214325205743</v>
       </c>
     </row>
     <row r="9">
@@ -1100,19 +1100,19 @@
         <v>23069</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>15820</v>
+        <v>15974</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>33134</v>
+        <v>33089</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2262753422543036</v>
+        <v>0.2262753422543037</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1551663000076239</v>
+        <v>0.1566838223406743</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3249985964152042</v>
+        <v>0.3245519806212804</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>42</v>
@@ -1121,19 +1121,19 @@
         <v>31620</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>23194</v>
+        <v>22945</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>41720</v>
+        <v>41855</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1709510830704137</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1253977735905854</v>
+        <v>0.124047699603937</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2255539724891282</v>
+        <v>0.2262851840452114</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>67</v>
@@ -1142,19 +1142,19 @@
         <v>54690</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>43044</v>
+        <v>43542</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>67144</v>
+        <v>68435</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.1906096907225885</v>
+        <v>0.1906096907225884</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1500201066735649</v>
+        <v>0.1517563256697719</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2340186985259757</v>
+        <v>0.2385164588243227</v>
       </c>
     </row>
     <row r="10">
@@ -1171,19 +1171,19 @@
         <v>18719</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11551</v>
+        <v>11538</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27972</v>
+        <v>28605</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1836097925343885</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.113300073824035</v>
+        <v>0.1131730693065366</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2743613566227203</v>
+        <v>0.2805756587508669</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>82</v>
@@ -1192,19 +1192,19 @@
         <v>52472</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>42473</v>
+        <v>43342</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>62920</v>
+        <v>62522</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2836829401105574</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2296245655841902</v>
+        <v>0.2343216003777817</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3401675149543671</v>
+        <v>0.338015016428789</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>101</v>
@@ -1213,19 +1213,19 @@
         <v>71191</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>59734</v>
+        <v>59269</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>84011</v>
+        <v>84979</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2481235169255299</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2081894367007082</v>
+        <v>0.206571684816021</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2928043771541544</v>
+        <v>0.2961790450390205</v>
       </c>
     </row>
     <row r="11">
@@ -1317,19 +1317,19 @@
         <v>48971</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>38171</v>
+        <v>37741</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>57710</v>
+        <v>57551</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.6252242365164931</v>
+        <v>0.6252242365164928</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.4873368914968434</v>
+        <v>0.4818550919071189</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7367963774599133</v>
+        <v>0.7347753958270111</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>98</v>
@@ -1338,19 +1338,19 @@
         <v>51150</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>43640</v>
+        <v>43717</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>58529</v>
+        <v>58967</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.56287169536583</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4802335275501639</v>
+        <v>0.4810767173908591</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6440727806575838</v>
+        <v>0.648897214721171</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>157</v>
@@ -1359,19 +1359,19 @@
         <v>100121</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>87997</v>
+        <v>87492</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>112011</v>
+        <v>112003</v>
       </c>
       <c r="U12" s="6" t="n">
-        <v>0.5917357753421987</v>
+        <v>0.5917357753421988</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5200821641643072</v>
+        <v>0.5171000829398607</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6620134234985464</v>
+        <v>0.6619669076370117</v>
       </c>
     </row>
     <row r="13">
@@ -1388,19 +1388,19 @@
         <v>9405</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>4455</v>
+        <v>4033</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>21356</v>
+        <v>21875</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1200760774496283</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05688337037192055</v>
+        <v>0.05148726149523473</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2726539212225406</v>
+        <v>0.2792798015909703</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>27</v>
@@ -1409,19 +1409,19 @@
         <v>17203</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>11918</v>
+        <v>11885</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>24293</v>
+        <v>24230</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1893048016750453</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1311511536582964</v>
+        <v>0.1307873988715372</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2673253487380005</v>
+        <v>0.2666344690271982</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>36</v>
@@ -1430,19 +1430,19 @@
         <v>26608</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>18686</v>
+        <v>18777</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>39311</v>
+        <v>39881</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1572576164949562</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1104393040459441</v>
+        <v>0.1109770722925833</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2323399041518669</v>
+        <v>0.2357061438762275</v>
       </c>
     </row>
     <row r="14">
@@ -1459,19 +1459,19 @@
         <v>19949</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>12928</v>
+        <v>12530</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>30026</v>
+        <v>29451</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2546996860338789</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1650515944602356</v>
+        <v>0.1599709797014944</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3833495285484004</v>
+        <v>0.3760056098459142</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>36</v>
@@ -1480,19 +1480,19 @@
         <v>22520</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>16307</v>
+        <v>16409</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>29545</v>
+        <v>29311</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2478235029591247</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1794435473320685</v>
+        <v>0.1805707480167874</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.325124447477085</v>
+        <v>0.3225515088953668</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>55</v>
@@ -1501,19 +1501,19 @@
         <v>42470</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>32347</v>
+        <v>32162</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>53767</v>
+        <v>53459</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.2510066081628449</v>
+        <v>0.251006608162845</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1911800015651143</v>
+        <v>0.190082920909601</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3177732405879515</v>
+        <v>0.3159556857792675</v>
       </c>
     </row>
     <row r="15">
@@ -1605,19 +1605,19 @@
         <v>40492</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>33844</v>
+        <v>33568</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>46415</v>
+        <v>46364</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7068803549696707</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.590822309478133</v>
+        <v>0.5859977195245629</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8102824956794521</v>
+        <v>0.8093815939793744</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>77</v>
@@ -1626,19 +1626,19 @@
         <v>46252</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>40120</v>
+        <v>39719</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>51858</v>
+        <v>51735</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.6967685961278572</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.6043960791202848</v>
+        <v>0.598355345566801</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.7812114963706561</v>
+        <v>0.779358633576525</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>126</v>
@@ -1647,19 +1647,19 @@
         <v>86745</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>77341</v>
+        <v>77739</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>95112</v>
+        <v>95281</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7014525247428632</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.6254081666866016</v>
+        <v>0.6286271230442839</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7691082782542892</v>
+        <v>0.7704778651026768</v>
       </c>
     </row>
     <row r="17">
@@ -1676,19 +1676,19 @@
         <v>9370</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5328</v>
+        <v>5203</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>15058</v>
+        <v>15538</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.1635719465825802</v>
+        <v>0.1635719465825801</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.09301430823460989</v>
+        <v>0.09082980570350678</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2628628127919547</v>
+        <v>0.2712477546562053</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -1697,19 +1697,19 @@
         <v>6336</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3235</v>
+        <v>3030</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>11046</v>
+        <v>11285</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.09544240838275524</v>
+        <v>0.09544240838275525</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04873375854021231</v>
+        <v>0.04565171278192839</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1664061542681813</v>
+        <v>0.1700001138466678</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>23</v>
@@ -1718,19 +1718,19 @@
         <v>15706</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>10350</v>
+        <v>10239</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>22646</v>
+        <v>22246</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1270011014344261</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.08369690179009438</v>
+        <v>0.08279320152625687</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1831234246225406</v>
+        <v>0.1798915787611998</v>
       </c>
     </row>
     <row r="18">
@@ -1747,19 +1747,19 @@
         <v>7421</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>3386</v>
+        <v>3108</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>13392</v>
+        <v>13217</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.1295476984477491</v>
+        <v>0.129547698447749</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.05910624667952161</v>
+        <v>0.05425889073333164</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2337949262016586</v>
+        <v>0.230732429712914</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>23</v>
@@ -1768,19 +1768,19 @@
         <v>13793</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>9259</v>
+        <v>8855</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>19484</v>
+        <v>19896</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2077889954893878</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1394775679098717</v>
+        <v>0.1333911303019759</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2935122555956324</v>
+        <v>0.2997289144543563</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>31</v>
@@ -1789,19 +1789,19 @@
         <v>21214</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>14497</v>
+        <v>14658</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>29079</v>
+        <v>28870</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1715463738227107</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1172315203519646</v>
+        <v>0.1185301150297543</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2351455245274008</v>
+        <v>0.2334512230897683</v>
       </c>
     </row>
     <row r="19">
@@ -1893,19 +1893,19 @@
         <v>198942</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>180059</v>
+        <v>180899</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>214624</v>
+        <v>217430</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.6305184440866987</v>
+        <v>0.6305184440866984</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5706728472048238</v>
+        <v>0.5733336509449107</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6802211677279505</v>
+        <v>0.6891155477163703</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>494</v>
@@ -1914,19 +1914,19 @@
         <v>280877</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>263633</v>
+        <v>264943</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>297492</v>
+        <v>298282</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6026449611179436</v>
+        <v>0.6026449611179437</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5656468599729908</v>
+        <v>0.5684566093103564</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6382944133480366</v>
+        <v>0.639987552463898</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>734</v>
@@ -1935,19 +1935,19 @@
         <v>479819</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>455299</v>
+        <v>455897</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>501835</v>
+        <v>504228</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.6138971789387944</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5825255582983294</v>
+        <v>0.5832905134809225</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6420654552371327</v>
+        <v>0.6451268635229743</v>
       </c>
     </row>
     <row r="21">
@@ -1964,19 +1964,19 @@
         <v>59645</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>47044</v>
+        <v>46324</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>74915</v>
+        <v>75945</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1890360522615644</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1490983070954472</v>
+        <v>0.1468168015502919</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2374335265159806</v>
+        <v>0.2406973305210253</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>100</v>
@@ -1985,19 +1985,19 @@
         <v>68957</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>56677</v>
+        <v>56888</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>82094</v>
+        <v>82384</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1479526415099723</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1216054218234591</v>
+        <v>0.1220568268414084</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1761400653691961</v>
+        <v>0.1767616019439034</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>165</v>
@@ -2006,19 +2006,19 @@
         <v>128602</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>108240</v>
+        <v>111315</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>147849</v>
+        <v>150799</v>
       </c>
       <c r="U21" s="6" t="n">
-        <v>0.1645375615617144</v>
+        <v>0.1645375615617145</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1384860984327501</v>
+        <v>0.1424205587826573</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1891633654894093</v>
+        <v>0.1929371805316021</v>
       </c>
     </row>
     <row r="22">
@@ -2035,19 +2035,19 @@
         <v>56934</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>44456</v>
+        <v>43125</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>72037</v>
+        <v>71792</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1804455036517371</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1408976450611322</v>
+        <v>0.1366776484792157</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2283116703830136</v>
+        <v>0.2275338184699585</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>182</v>
@@ -2056,19 +2056,19 @@
         <v>116240</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>102025</v>
+        <v>100745</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>133020</v>
+        <v>131842</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.249402397372084</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2189024863742293</v>
+        <v>0.2161560479992769</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2854061036749904</v>
+        <v>0.2828782097889715</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>241</v>
@@ -2077,19 +2077,19 @@
         <v>173174</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>155562</v>
+        <v>152450</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>196448</v>
+        <v>195291</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2215652594994911</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1990320346461164</v>
+        <v>0.1950499298288921</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2513418698805114</v>
+        <v>0.2498626326750099</v>
       </c>
     </row>
     <row r="23">
